--- a/data/s_vals/2023/kiner-falefa_isiah.xlsx
+++ b/data/s_vals/2023/kiner-falefa_isiah.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C2" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.276820249404641</v>
+        <v>3.811642989160245</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C3" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.78562275156707</v>
+        <v>6.048734245549538</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C4" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.276820249404641</v>
+        <v>3.811642989160245</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/kiner-falefa_isiah.xlsx
+++ b/data/s_vals/2023/kiner-falefa_isiah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>3.811642989160245</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>6.048734245549538</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>3.811642989160245</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/kiner-falefa_isiah.xlsx
+++ b/data/s_vals/2023/kiner-falefa_isiah.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C2" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.811642989160245</v>
+        <v>3.754798637575387</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C3" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.048734245549538</v>
+        <v>6.189590430959694</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C4" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.811642989160245</v>
+        <v>3.754798637575387</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
